--- a/public/sample_uploads/portfolio_investments_for_as_of_report.xlsx
+++ b/public/sample_uploads/portfolio_investments_for_as_of_report.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t xml:space="preserve">Fund</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">Investment Domicile *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excused Folio Ids</t>
   </si>
   <si>
     <t xml:space="preserve">SAAS Fund</t>
@@ -250,7 +253,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -298,6 +301,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -376,20 +385,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,10 +601,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,46 +623,49 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="14" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="1014" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1015" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1015" style="2" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>45323</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -655,26 +675,26 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>45324</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -684,26 +704,26 @@
         <v>-20000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>45352</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -713,26 +733,26 @@
         <v>12000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>45353</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -742,26 +762,26 @@
         <v>-3000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>45413</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -771,16 +791,16 @@
         <v>12000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/public/sample_uploads/portfolio_investments_for_as_of_report.xlsx
+++ b/public/sample_uploads/portfolio_investments_for_as_of_report.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t xml:space="preserve">Fund</t>
   </si>
@@ -227,6 +227,9 @@
     <t xml:space="preserve">Excused Folio Ids</t>
   </si>
   <si>
+    <t xml:space="preserve">Proforma</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAAS Fund</t>
   </si>
   <si>
@@ -243,6 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">Domestic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
 </sst>
 </file>
@@ -307,6 +313,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -402,7 +409,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,10 +608,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -617,7 +624,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.26"/>
@@ -657,13 +664,16 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>45323</v>
@@ -675,24 +685,24 @@
         <v>20000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>45324</v>
@@ -704,24 +714,24 @@
         <v>-20000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>45352</v>
@@ -733,24 +743,24 @@
         <v>12000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>45353</v>
@@ -762,24 +772,24 @@
         <v>-3000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>45413</v>
@@ -791,16 +801,48 @@
         <v>12000</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="C7" s="5" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/public/sample_uploads/portfolio_investments_for_as_of_report.xlsx
+++ b/public/sample_uploads/portfolio_investments_for_as_of_report.xlsx
@@ -608,20 +608,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.27"/>
@@ -845,14 +845,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I7" type="list">
       <formula1>"Domestic,Overseas"</formula1>
       <formula2>0</formula2>
     </dataValidation>
